--- a/STELARR2/Files/users.xlsx
+++ b/STELARR2/Files/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janle\source\repos\lms-stelarr\STELARR2\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75D75D5-310F-4925-ACBF-48F5F61135A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85F502E-8F8D-4E13-840C-F692E4EA03E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="3590" windowWidth="28800" windowHeight="15370" xr2:uid="{C05F6333-D33C-44FE-A4CE-C5F72F39D073}"/>
+    <workbookView xWindow="4880" yWindow="3910" windowWidth="28800" windowHeight="15370" xr2:uid="{C05F6333-D33C-44FE-A4CE-C5F72F39D073}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,49 +410,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90378344-6A63-4137-B2E7-F4B3FC8DA0B7}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.26953125" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.08984375" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="18.26953125" style="1"/>
+    <col min="1" max="16384" width="10.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+    <row r="1" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1234</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1234</v>
       </c>
     </row>
   </sheetData>
